--- a/biology/Botanique/Panela/Panela.xlsx
+++ b/biology/Botanique/Panela/Panela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La panela, également appelée rapadura, raspadura, rapadou, atado dulce, chancaca, empanizao, papelón, piloncillo, panocha dans les langues basées sur l'espagnol ou le portugais, pain de vesou ou sirop de canne, en français, est un aliment très commun au Brésil, Pérou, Argentine, Mexique, Amérique centrale, Panama, Colombie, Venezuela, Équateur, Bolivie, Haïti et dans les îles Canaries. Son unique ingrédient est le jus de la canne à sucre (ou vesou), qui est cuit à haute température pour donner une sorte de mélasse, ensuite refroidie en pains.
